--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/A2m-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/A2m-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>A2m</t>
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2941963333333333</v>
+        <v>0.007329</v>
       </c>
       <c r="H2">
-        <v>0.8825890000000001</v>
+        <v>0.021987</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02399565203630724</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02399565203630724</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>2.392179228275333</v>
+        <v>0.027814964611</v>
       </c>
       <c r="R2">
-        <v>21.529613054478</v>
+        <v>0.250334681499</v>
       </c>
       <c r="S2">
-        <v>0.02090995573015823</v>
+        <v>0.0002505658993360708</v>
       </c>
       <c r="T2">
-        <v>0.02090995573015823</v>
+        <v>0.0002505658993360708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2941963333333333</v>
+        <v>0.007329</v>
       </c>
       <c r="H3">
-        <v>0.8825890000000001</v>
+        <v>0.021987</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02399565203630724</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02399565203630724</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>71.60044410760489</v>
+        <v>1.783705625828</v>
       </c>
       <c r="R3">
-        <v>644.4039969684441</v>
+        <v>16.053350632452</v>
       </c>
       <c r="S3">
-        <v>0.6258570005346471</v>
+        <v>0.01606817806662432</v>
       </c>
       <c r="T3">
-        <v>0.6258570005346471</v>
+        <v>0.01606817806662432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2941963333333333</v>
+        <v>0.007329</v>
       </c>
       <c r="H4">
-        <v>0.8825890000000001</v>
+        <v>0.021987</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02399565203630724</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02399565203630724</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>9.831673518452444</v>
+        <v>0.218414248059</v>
       </c>
       <c r="R4">
-        <v>88.485061666072</v>
+        <v>1.965728232531</v>
       </c>
       <c r="S4">
-        <v>0.08593831749489128</v>
+        <v>0.001967543847640633</v>
       </c>
       <c r="T4">
-        <v>0.08593831749489128</v>
+        <v>0.001967543847640633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
+        <v>0.007329</v>
+      </c>
+      <c r="H5">
+        <v>0.021987</v>
+      </c>
+      <c r="I5">
+        <v>0.02399565203630724</v>
+      </c>
+      <c r="J5">
+        <v>0.02399565203630724</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>86.47679266666667</v>
+      </c>
+      <c r="N5">
+        <v>259.430378</v>
+      </c>
+      <c r="O5">
+        <v>0.2379332811655844</v>
+      </c>
+      <c r="P5">
+        <v>0.2379332811655844</v>
+      </c>
+      <c r="Q5">
+        <v>0.6337884134539999</v>
+      </c>
+      <c r="R5">
+        <v>5.704095721086</v>
+      </c>
+      <c r="S5">
+        <v>0.005709364222706219</v>
+      </c>
+      <c r="T5">
+        <v>0.005709364222706219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>0.2941963333333333</v>
       </c>
-      <c r="H5">
-        <v>0.8825890000000001</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>103.9426383333333</v>
-      </c>
-      <c r="N5">
-        <v>311.827915</v>
-      </c>
-      <c r="O5">
-        <v>0.2672947262403034</v>
-      </c>
-      <c r="P5">
-        <v>0.2672947262403034</v>
-      </c>
-      <c r="Q5">
-        <v>30.57954307465944</v>
-      </c>
-      <c r="R5">
-        <v>275.215887671935</v>
-      </c>
-      <c r="S5">
-        <v>0.2672947262403034</v>
-      </c>
-      <c r="T5">
-        <v>0.2672947262403034</v>
+      <c r="H6">
+        <v>0.882589</v>
+      </c>
+      <c r="I6">
+        <v>0.9632191083400362</v>
+      </c>
+      <c r="J6">
+        <v>0.9632191083400361</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.795192333333334</v>
+      </c>
+      <c r="N6">
+        <v>11.385577</v>
+      </c>
+      <c r="O6">
+        <v>0.01044213755712683</v>
+      </c>
+      <c r="P6">
+        <v>0.01044213755712683</v>
+      </c>
+      <c r="Q6">
+        <v>1.116531668761445</v>
+      </c>
+      <c r="R6">
+        <v>10.048785018853</v>
+      </c>
+      <c r="S6">
+        <v>0.01005806642693971</v>
+      </c>
+      <c r="T6">
+        <v>0.01005806642693971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.2941963333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.882589</v>
+      </c>
+      <c r="I7">
+        <v>0.9632191083400362</v>
+      </c>
+      <c r="J7">
+        <v>0.9632191083400361</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>243.3763986666667</v>
+      </c>
+      <c r="N7">
+        <v>730.1291960000001</v>
+      </c>
+      <c r="O7">
+        <v>0.6696287328350964</v>
+      </c>
+      <c r="P7">
+        <v>0.6696287328350964</v>
+      </c>
+      <c r="Q7">
+        <v>71.6004441076049</v>
+      </c>
+      <c r="R7">
+        <v>644.4039969684441</v>
+      </c>
+      <c r="S7">
+        <v>0.6449991909602899</v>
+      </c>
+      <c r="T7">
+        <v>0.6449991909602898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.2941963333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.882589</v>
+      </c>
+      <c r="I8">
+        <v>0.9632191083400362</v>
+      </c>
+      <c r="J8">
+        <v>0.9632191083400361</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>29.801371</v>
+      </c>
+      <c r="N8">
+        <v>89.404113</v>
+      </c>
+      <c r="O8">
+        <v>0.08199584844219236</v>
+      </c>
+      <c r="P8">
+        <v>0.08199584844219235</v>
+      </c>
+      <c r="Q8">
+        <v>8.767454076506333</v>
+      </c>
+      <c r="R8">
+        <v>78.90708668855699</v>
+      </c>
+      <c r="S8">
+        <v>0.07897996802407327</v>
+      </c>
+      <c r="T8">
+        <v>0.07897996802407325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.2941963333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.882589</v>
+      </c>
+      <c r="I9">
+        <v>0.9632191083400362</v>
+      </c>
+      <c r="J9">
+        <v>0.9632191083400361</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>86.47679266666667</v>
+      </c>
+      <c r="N9">
+        <v>259.430378</v>
+      </c>
+      <c r="O9">
+        <v>0.2379332811655844</v>
+      </c>
+      <c r="P9">
+        <v>0.2379332811655844</v>
+      </c>
+      <c r="Q9">
+        <v>25.44115532096022</v>
+      </c>
+      <c r="R9">
+        <v>228.970397888642</v>
+      </c>
+      <c r="S9">
+        <v>0.2291818829287333</v>
+      </c>
+      <c r="T9">
+        <v>0.2291818829287333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.003905</v>
+      </c>
+      <c r="H10">
+        <v>0.011715</v>
+      </c>
+      <c r="I10">
+        <v>0.01278523962365668</v>
+      </c>
+      <c r="J10">
+        <v>0.01278523962365668</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.795192333333334</v>
+      </c>
+      <c r="N10">
+        <v>11.385577</v>
+      </c>
+      <c r="O10">
+        <v>0.01044213755712683</v>
+      </c>
+      <c r="P10">
+        <v>0.01044213755712683</v>
+      </c>
+      <c r="Q10">
+        <v>0.01482022606166667</v>
+      </c>
+      <c r="R10">
+        <v>0.133382034555</v>
+      </c>
+      <c r="S10">
+        <v>0.0001335052308510515</v>
+      </c>
+      <c r="T10">
+        <v>0.0001335052308510515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.003905</v>
+      </c>
+      <c r="H11">
+        <v>0.011715</v>
+      </c>
+      <c r="I11">
+        <v>0.01278523962365668</v>
+      </c>
+      <c r="J11">
+        <v>0.01278523962365668</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>243.3763986666667</v>
+      </c>
+      <c r="N11">
+        <v>730.1291960000001</v>
+      </c>
+      <c r="O11">
+        <v>0.6696287328350964</v>
+      </c>
+      <c r="P11">
+        <v>0.6696287328350964</v>
+      </c>
+      <c r="Q11">
+        <v>0.9503848367933334</v>
+      </c>
+      <c r="R11">
+        <v>8.55346353114</v>
+      </c>
+      <c r="S11">
+        <v>0.008561363808182286</v>
+      </c>
+      <c r="T11">
+        <v>0.008561363808182286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.003905</v>
+      </c>
+      <c r="H12">
+        <v>0.011715</v>
+      </c>
+      <c r="I12">
+        <v>0.01278523962365668</v>
+      </c>
+      <c r="J12">
+        <v>0.01278523962365668</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>29.801371</v>
+      </c>
+      <c r="N12">
+        <v>89.404113</v>
+      </c>
+      <c r="O12">
+        <v>0.08199584844219236</v>
+      </c>
+      <c r="P12">
+        <v>0.08199584844219235</v>
+      </c>
+      <c r="Q12">
+        <v>0.116374353755</v>
+      </c>
+      <c r="R12">
+        <v>1.047369183795</v>
+      </c>
+      <c r="S12">
+        <v>0.001048336570478465</v>
+      </c>
+      <c r="T12">
+        <v>0.001048336570478465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.003905</v>
+      </c>
+      <c r="H13">
+        <v>0.011715</v>
+      </c>
+      <c r="I13">
+        <v>0.01278523962365668</v>
+      </c>
+      <c r="J13">
+        <v>0.01278523962365668</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>86.47679266666667</v>
+      </c>
+      <c r="N13">
+        <v>259.430378</v>
+      </c>
+      <c r="O13">
+        <v>0.2379332811655844</v>
+      </c>
+      <c r="P13">
+        <v>0.2379332811655844</v>
+      </c>
+      <c r="Q13">
+        <v>0.3376918753633333</v>
+      </c>
+      <c r="R13">
+        <v>3.03922687827</v>
+      </c>
+      <c r="S13">
+        <v>0.003042034014144875</v>
+      </c>
+      <c r="T13">
+        <v>0.003042034014144874</v>
       </c>
     </row>
   </sheetData>
